--- a/MMDTT_LAB_2/data/aroclolpezus.xlsx
+++ b/MMDTT_LAB_2/data/aroclolpezus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Source\LABS\MMDTT_LAB_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28580D37-6B3A-4612-B19E-EE38E94A9EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED2B896-E350-4BE4-9432-0D1C4931E3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="velocity" sheetId="1" r:id="rId1"/>
@@ -92,6 +92,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Скорость</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12832,8 +12857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19086,8 +19111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1397BCD2-A249-457C-BB67-8938175B99A1}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
